--- a/28_02_2023/AL258113_proyect.xlsx
+++ b/28_02_2023/AL258113_proyect.xlsx
@@ -37,7 +37,7 @@
     <x:t>CSD</x:t>
   </x:si>
   <x:si>
-    <x:t>un nuevo programa de computadora</x:t>
+    <x:t>Software de computadora</x:t>
   </x:si>
 </x:sst>
 </file>
